--- a/src/assets/docs/price.xlsx
+++ b/src/assets/docs/price.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.kocheryaeva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB1970A-5F65-8940-A009-D7783ED94BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD5DF94-33B0-4AFC-BCB3-3161DE6794FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8BC545EF-EBF0-4A3D-9E4B-751508A9CAB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BC545EF-EBF0-4A3D-9E4B-751508A9CAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,123 +31,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Артикул</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Товар - Название</t>
   </si>
   <si>
-    <t>SKU0011106000</t>
-  </si>
-  <si>
     <t>Antiseptic Hand Spray Blue 100</t>
   </si>
   <si>
-    <t>SKU0011108000</t>
-  </si>
-  <si>
-    <t>Antiseptic Hand Spray Pink 100</t>
-  </si>
-  <si>
-    <t>SKU0011109000</t>
-  </si>
-  <si>
-    <t>Antiseptic Hand Spray Green 100</t>
-  </si>
-  <si>
-    <t>SKU0011144000</t>
-  </si>
-  <si>
     <t>Antiseptic Hand Gel Pink 60мл</t>
   </si>
   <si>
-    <t>SKU0011146000</t>
-  </si>
-  <si>
     <t>Antiseptic Hand Gel Blue 60мл</t>
   </si>
   <si>
-    <t>SKU0011159000</t>
-  </si>
-  <si>
-    <t>Antiseptic Multi Use Spray 300 ml Pink</t>
-  </si>
-  <si>
-    <t>SKU0011160000</t>
-  </si>
-  <si>
     <t>Antiseptic Multi Use Spray 400 ml Blue</t>
   </si>
   <si>
-    <t>SKU0011070000</t>
-  </si>
-  <si>
     <t>Antibacterial Hand Wash</t>
   </si>
   <si>
-    <t>SKU0011072000</t>
-  </si>
-  <si>
     <t>Antibacterial Shower Gel</t>
   </si>
   <si>
-    <t>SKU0011294000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Blue</t>
   </si>
   <si>
-    <t>SKU0011310000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Gold</t>
   </si>
   <si>
-    <t>SKU0011311000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Rose</t>
   </si>
   <si>
-    <t>SKU0011312000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Lilac</t>
   </si>
   <si>
-    <t>SKU0011313000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Grey</t>
   </si>
   <si>
-    <t>SKU0011315000</t>
-  </si>
-  <si>
     <t>Protective Soft Mask Black</t>
   </si>
   <si>
-    <t>Прайс лист для оптовых закупок MIXIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цена опт до 50 000 шт, руб. (без НДС) </t>
-  </si>
-  <si>
-    <t>Цена опт от 50 000 шт, руб. (без НДС)</t>
-  </si>
-  <si>
-    <t>Цена опт от 70 000 шт, руб. (без НДС)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цена опт от 100 000 шт, руб. (без НДС) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Генеральный директор ООО Миксит </t>
   </si>
   <si>
     <t xml:space="preserve">Черданцева А.С. </t>
+  </si>
+  <si>
+    <t>Antiseptic Hand Gel Pink 1000мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена опт до 50 000 шт, руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена опт от 50 000 шт, руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена опт от 70 000 шт, руб. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена опт от 100 000 шт, руб.  </t>
+  </si>
+  <si>
+    <t>Antiseptic Hand Gel 10000мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiseptic Hand Gel Pink 5000мл </t>
+  </si>
+  <si>
+    <t>Antiseptic Hand Gel 20000мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена опт до 5000 шт, руб. </t>
   </si>
 </sst>
 </file>
@@ -183,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,39 +173,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -265,70 +198,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -348,13 +217,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,42 +247,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2 2" xfId="1" xr:uid="{D0437D95-B17C-4C96-B53C-352B5E48CDBC}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0"/>
@@ -727,392 +582,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28CAD68-F099-41C7-8EA9-1E7AEB40841B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection sqref="A1:F22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="25.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="37" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="32" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="14">
+        <v>75</v>
+      </c>
+      <c r="C3" s="14">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14">
+        <v>69</v>
+      </c>
+      <c r="E3" s="14">
+        <v>67</v>
+      </c>
+      <c r="F3" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="14">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14">
+        <v>52</v>
+      </c>
+      <c r="D4" s="14">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14">
+        <v>45.8</v>
+      </c>
+      <c r="F4" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
-        <v>105</v>
-      </c>
-      <c r="D3" s="12">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12">
-        <v>79</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="B5" s="14">
+        <v>55</v>
+      </c>
+      <c r="C5" s="14">
+        <v>52</v>
+      </c>
+      <c r="D5" s="14">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45.8</v>
+      </c>
+      <c r="F5" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>290</v>
+      </c>
+      <c r="C6" s="14">
+        <v>280</v>
+      </c>
+      <c r="D6" s="14">
+        <v>260</v>
+      </c>
+      <c r="E6" s="14">
+        <v>244</v>
+      </c>
+      <c r="F6" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14">
+        <v>460</v>
+      </c>
+      <c r="C7" s="14">
+        <v>440</v>
+      </c>
+      <c r="D7" s="14">
+        <v>415</v>
+      </c>
+      <c r="E7" s="14">
+        <v>395</v>
+      </c>
+      <c r="F7" s="14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2400</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2200</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4700</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4300</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9300</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8500</v>
+      </c>
+      <c r="D10" s="14">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="14">
+        <v>6900</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14">
+        <v>78</v>
+      </c>
+      <c r="D11" s="14">
+        <v>70</v>
+      </c>
+      <c r="E11" s="14">
+        <v>66</v>
+      </c>
+      <c r="F11" s="14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>83</v>
+      </c>
+      <c r="C12" s="14">
+        <v>78</v>
+      </c>
+      <c r="D12" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12">
-        <v>105</v>
-      </c>
-      <c r="D4" s="12">
-        <v>85</v>
-      </c>
-      <c r="E4" s="12">
-        <v>79</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E12" s="14">
+        <v>68</v>
+      </c>
+      <c r="F12" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
-        <v>105</v>
-      </c>
-      <c r="D5" s="12">
-        <v>85</v>
-      </c>
-      <c r="E5" s="12">
-        <v>79</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C13" s="16">
+        <v>72</v>
+      </c>
+      <c r="D13" s="16">
+        <v>70</v>
+      </c>
+      <c r="E13" s="16">
+        <v>66</v>
+      </c>
+      <c r="F13" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C14" s="16">
+        <v>72</v>
+      </c>
+      <c r="D14" s="16">
+        <v>70</v>
+      </c>
+      <c r="E14" s="16">
+        <v>66</v>
+      </c>
+      <c r="F14" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
-        <v>93</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B15" s="16">
         <v>75</v>
       </c>
-      <c r="E6" s="12">
+      <c r="C15" s="16">
+        <v>72</v>
+      </c>
+      <c r="D15" s="16">
         <v>70</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E15" s="16">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="F15" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B16" s="16">
+        <v>75</v>
+      </c>
+      <c r="C16" s="16">
+        <v>72</v>
+      </c>
+      <c r="D16" s="16">
+        <v>70</v>
+      </c>
+      <c r="E16" s="16">
+        <v>66</v>
+      </c>
+      <c r="F16" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12">
-        <v>93</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="B17" s="16">
         <v>75</v>
       </c>
-      <c r="E7" s="12">
+      <c r="C17" s="16">
+        <v>72</v>
+      </c>
+      <c r="D17" s="16">
         <v>70</v>
       </c>
-      <c r="F7" s="13">
+      <c r="E17" s="16">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="F17" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B18" s="16">
+        <v>75</v>
+      </c>
+      <c r="C18" s="16">
+        <v>72</v>
+      </c>
+      <c r="D18" s="16">
+        <v>70</v>
+      </c>
+      <c r="E18" s="16">
+        <v>66</v>
+      </c>
+      <c r="F18" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12">
-        <v>262</v>
-      </c>
-      <c r="D8" s="12">
-        <v>210</v>
-      </c>
-      <c r="E8" s="12">
-        <v>197</v>
-      </c>
-      <c r="F8" s="13">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12">
-        <v>324</v>
-      </c>
-      <c r="D9" s="12">
-        <v>260</v>
-      </c>
-      <c r="E9" s="12">
-        <v>244</v>
-      </c>
-      <c r="F9" s="13">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12">
-        <v>88</v>
-      </c>
-      <c r="D10" s="12">
-        <v>70</v>
-      </c>
-      <c r="E10" s="12">
-        <v>66</v>
-      </c>
-      <c r="F10" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="12">
-        <v>90</v>
-      </c>
-      <c r="D11" s="12">
-        <v>75</v>
-      </c>
-      <c r="E11" s="12">
-        <v>68</v>
-      </c>
-      <c r="F11" s="13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12">
-        <v>88</v>
-      </c>
-      <c r="D12" s="12">
-        <v>70</v>
-      </c>
-      <c r="E12" s="12">
-        <v>66</v>
-      </c>
-      <c r="F12" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12">
-        <v>88</v>
-      </c>
-      <c r="D13" s="12">
-        <v>70</v>
-      </c>
-      <c r="E13" s="12">
-        <v>66</v>
-      </c>
-      <c r="F13" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="12">
-        <v>88</v>
-      </c>
-      <c r="D14" s="12">
-        <v>70</v>
-      </c>
-      <c r="E14" s="12">
-        <v>66</v>
-      </c>
-      <c r="F14" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12">
-        <v>70</v>
-      </c>
-      <c r="E15" s="12">
-        <v>66</v>
-      </c>
-      <c r="F15" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="12">
-        <v>88</v>
-      </c>
-      <c r="D16" s="12">
-        <v>70</v>
-      </c>
-      <c r="E16" s="12">
-        <v>66</v>
-      </c>
-      <c r="F16" s="13">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="14">
-        <v>88</v>
-      </c>
-      <c r="D17" s="14">
-        <v>70</v>
-      </c>
-      <c r="E17" s="14">
-        <v>66</v>
-      </c>
-      <c r="F17" s="15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:B2 D3:D11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="C3:F12 A2 A13:A20">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B17">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11">
+  <conditionalFormatting sqref="B3:B7">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11">
+  <conditionalFormatting sqref="B8:B12 B19:B20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
